--- a/BOM_Digikey.xlsx
+++ b/BOM_Digikey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vvosahlo\cernbox\Documents\altium\fastic_readout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A57AF6-491C-43EB-B1BE-D114B0465CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBF2226-0F1B-4BEC-B57D-39180DD1058C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6906E42F-75F4-4F81-A941-EECAD54D511D}"/>
+    <workbookView xWindow="3750" yWindow="1500" windowWidth="34545" windowHeight="16440" xr2:uid="{6906E42F-75F4-4F81-A941-EECAD54D511D}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Digikey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>Quantity</t>
   </si>
@@ -194,9 +194,6 @@
     <t>277-1206-ND</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>BLM15HB221SN1D</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>MOUSER</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -465,10 +465,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -483,7 +482,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,6 +495,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,9 +525,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -560,7 +565,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -666,7 +671,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -808,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -819,7 +824,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,20 +838,20 @@
     <col min="8" max="8" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -854,67 +859,67 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="7" t="s">
-        <v>98</v>
+      <c r="G2" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="G3" s="8" t="s">
-        <v>99</v>
+      <c r="E3" s="17"/>
+      <c r="G3" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>100</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="9" t="s">
-        <v>100</v>
+      <c r="E4" s="17"/>
+      <c r="G4" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>50</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1"/>
@@ -923,13 +928,13 @@
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>350</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1"/>
@@ -938,65 +943,67 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>100</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="15" t="s">
-        <v>101</v>
+      <c r="G7" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>50</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="G8" s="14" t="s">
-        <v>102</v>
+      <c r="G8" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>50</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="G9" s="13"/>
+      <c r="E9" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>150</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1"/>
@@ -1005,13 +1012,13 @@
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>100</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="1"/>
@@ -1020,28 +1027,30 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>50</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="1"/>
@@ -1050,13 +1059,13 @@
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="1">
         <v>150</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="1"/>
@@ -1065,13 +1074,13 @@
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>50</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="1"/>
@@ -1080,13 +1089,13 @@
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>50</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="1"/>
@@ -1095,13 +1104,13 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>50</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="1"/>
@@ -1110,13 +1119,13 @@
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>50</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="1"/>
@@ -1125,28 +1134,30 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="1">
         <v>50</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="1"/>
@@ -1155,28 +1166,30 @@
       <c r="A21" s="1">
         <v>4</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="1">
         <v>200</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="1">
         <v>50</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="1"/>
@@ -1185,73 +1198,77 @@
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="1">
         <v>50</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="1">
         <v>50</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
+      <c r="D24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>52</v>
+      <c r="B25" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="1">
         <v>100</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="1"/>
+      <c r="D25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1">
+        <v>50</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" s="1">
-        <v>50</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="E27" s="1"/>
     </row>
@@ -1259,14 +1276,14 @@
       <c r="A28" s="1">
         <v>4</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>58</v>
+      <c r="B28" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C28" s="1">
         <v>200</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>59</v>
+      <c r="D28" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1274,14 +1291,14 @@
       <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1">
+        <v>50</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="1">
-        <v>50</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1289,29 +1306,31 @@
       <c r="A30" s="1">
         <v>2</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>62</v>
+      <c r="B30" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="C30" s="1">
         <v>100</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="D30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>8</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>64</v>
+      <c r="B31" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="1">
         <v>500</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>65</v>
+      <c r="D31" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1319,14 +1338,14 @@
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>66</v>
+      <c r="B32" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C32" s="1">
         <v>150</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>67</v>
+      <c r="D32" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="E32" s="1"/>
     </row>
@@ -1334,14 +1353,14 @@
       <c r="A33" s="1">
         <v>8</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>68</v>
+      <c r="B33" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C33" s="1">
         <v>500</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>69</v>
+      <c r="D33" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1349,14 +1368,14 @@
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>70</v>
+      <c r="B34" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C34" s="1">
         <v>200</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>71</v>
+      <c r="D34" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1364,27 +1383,27 @@
       <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>72</v>
+      <c r="B35" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C35" s="1">
         <v>100</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>73</v>
+      <c r="D35" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="10">
+        <v>50</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" s="11">
-        <v>50</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1392,14 +1411,14 @@
       <c r="A37" s="1">
         <v>1</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>50</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" s="1">
-        <v>50</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -1407,14 +1426,14 @@
       <c r="A38" s="1">
         <v>3</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>78</v>
+      <c r="B38" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C38" s="1">
         <v>150</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>79</v>
+      <c r="D38" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="E38" s="1"/>
     </row>
@@ -1422,14 +1441,14 @@
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1">
+        <v>50</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" s="1">
-        <v>50</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1437,14 +1456,14 @@
       <c r="A40" s="1">
         <v>3</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>82</v>
+      <c r="B40" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C40" s="1">
         <v>150</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>83</v>
+      <c r="D40" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -1452,14 +1471,14 @@
       <c r="A41" s="1">
         <v>1</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1">
+        <v>50</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" s="1">
-        <v>50</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -1467,26 +1486,28 @@
       <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1">
+        <v>50</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="1">
-        <v>50</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -1494,14 +1515,14 @@
       <c r="A44" s="1">
         <v>8</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>90</v>
+      <c r="B44" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C44" s="1">
         <v>500</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>91</v>
+      <c r="D44" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -1509,14 +1530,14 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>92</v>
+      <c r="B45" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>100</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>93</v>
+      <c r="D45" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -1524,14 +1545,14 @@
       <c r="A46" s="1">
         <v>1</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="1">
+        <v>50</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="C46" s="1">
-        <v>50</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -1539,16 +1560,18 @@
       <c r="A47" s="1">
         <v>1</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="1">
+        <v>50</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="1">
-        <v>50</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="17" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
